--- a/trunk/Salesforce/11 - Riscos/Escala de Impacto de Risco.xlsx
+++ b/trunk/Salesforce/11 - Riscos/Escala de Impacto de Risco.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="6720"/>
@@ -11,12 +11,12 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Muito Baixo</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Baixo </t>
   </si>
   <si>
-    <t>Moderado</t>
-  </si>
-  <si>
     <t>Alto </t>
   </si>
   <si>
@@ -63,12 +60,6 @@
     <t>Qualidade</t>
   </si>
   <si>
-    <t>Escalas de Impacto de Risco</t>
-  </si>
-  <si>
-    <t>Área</t>
-  </si>
-  <si>
     <t>Classificação</t>
   </si>
   <si>
@@ -99,9 +90,6 @@
     <t>Redução de escopo inaceitável para o patrocinador</t>
   </si>
   <si>
-    <t>Aumento de custo nãosignificativo: &lt; 1%</t>
-  </si>
-  <si>
     <t>Aumento de tempo não significativo: &lt; 1%</t>
   </si>
   <si>
@@ -109,13 +97,46 @@
   </si>
   <si>
     <t>1-10% aumento de custo</t>
+  </si>
+  <si>
+    <t>Aumento de custo não significativo: &lt; 1%</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>PROBABILIDADE</t>
+  </si>
+  <si>
+    <t>Muito Alto</t>
+  </si>
+  <si>
+    <t>IMPACTO</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Baixo</t>
+  </si>
+  <si>
+    <t>ESCALAS DE IMPACTO DE RISCO</t>
+  </si>
+  <si>
+    <t>ÁREA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,32 +148,96 @@
       <b/>
       <i/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Inherit"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
       <name val="Inherit"/>
     </font>
     <font>
       <b/>
-      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Inherit"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -161,92 +246,581 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moeda 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -325,7 +899,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -360,7 +933,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -536,157 +1108,296 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:7" ht="24" customHeight="1" thickBot="1">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:15" s="2" customFormat="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="2:15" ht="15" customHeight="1">
+      <c r="B3" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="2:15" ht="36" customHeight="1">
+      <c r="B4" s="40"/>
+      <c r="C4" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="53"/>
+      <c r="I4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5">
         <v>15</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="M4" s="5">
+        <v>20</v>
+      </c>
+      <c r="N4" s="6">
+        <v>25</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="2:15" ht="36" customHeight="1">
+      <c r="B5" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="8">
+        <v>8</v>
+      </c>
+      <c r="L5" s="8">
+        <v>12</v>
+      </c>
+      <c r="M5" s="9">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="N5" s="10">
+        <v>20</v>
+      </c>
+      <c r="O5" s="27"/>
+    </row>
+    <row r="6" spans="2:15" ht="36" customHeight="1">
+      <c r="B6" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="7">
+        <v>3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>6</v>
+      </c>
+      <c r="L6" s="8">
+        <v>9</v>
+      </c>
+      <c r="M6" s="8">
+        <v>12</v>
+      </c>
+      <c r="N6" s="10">
+        <v>15</v>
+      </c>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="2:15" ht="36" customHeight="1">
+      <c r="B7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="11">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8">
+        <v>6</v>
+      </c>
+      <c r="M7" s="8">
+        <v>8</v>
+      </c>
+      <c r="N7" s="12">
+        <v>10</v>
+      </c>
+      <c r="O7" s="27"/>
+    </row>
+    <row r="8" spans="2:15" ht="36" customHeight="1">
+      <c r="B8" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="F8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14">
+        <v>2</v>
+      </c>
+      <c r="L8" s="14">
+        <v>3</v>
+      </c>
+      <c r="M8" s="14">
+        <v>4</v>
+      </c>
+      <c r="N8" s="15">
+        <v>5</v>
+      </c>
+      <c r="O8" s="28"/>
     </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" thickBot="1">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" thickBot="1">
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="36.75" thickBot="1">
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="36.75" thickBot="1">
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="6"/>
+    <row r="9" spans="2:15">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C4:G4"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O4:O8"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -700,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
